--- a/Grind/roadmap.xlsx
+++ b/Grind/roadmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codeforces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CP\Grind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186593C7-D578-49E1-BB57-432D1D4A872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9A876E-E94D-453A-952B-94FA44BDFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C54927D-AA71-406E-B84E-E8CF532E1A5D}"/>
   </bookViews>
@@ -462,7 +462,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +493,12 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -521,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,6 +622,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB92E613-4B91-4891-9AE0-02057F498D84}">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,7 +970,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/677/problem/A","CF677-D2-A")</f>
         <v>CF677-D2-A</v>
       </c>
@@ -979,7 +1000,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/734/problem/A","CF734-D2-A")</f>
         <v>CF734-D2-A</v>
       </c>
@@ -1009,7 +1030,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="42" t="str">
         <f>HYPERLINK("codeforces.com/contest/791/problem/A","CF791-D2-A")</f>
         <v>CF791-D2-A</v>
       </c>
@@ -1038,7 +1059,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/231/problem/A","CF231-D2-A")</f>
         <v>CF231-D2-A</v>
       </c>
@@ -1068,11 +1089,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/263/problem/A","CF263-D2-A")</f>
         <v>CF263-D2-A</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="44" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/102/problem/B","CF102-D2-B")</f>
         <v>CF102-D2-B</v>
       </c>
@@ -1097,7 +1118,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/405/problem/A","CF405-D2-A")</f>
         <v>CF405-D2-A</v>
       </c>
@@ -1127,7 +1148,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/112/problem/A","CF112-D2-A")</f>
         <v>CF112-D2-A</v>
       </c>
@@ -1156,7 +1177,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="str">
+      <c r="A8" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/236/problem/A","CF236-D2-A")</f>
         <v>CF236-D2-A</v>
       </c>
@@ -1185,11 +1206,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/59/problem/A","CF59-D2-A")</f>
         <v>CF59-D2-A</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="46" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/746/problem/B","CF746-D2-B")</f>
         <v>CF746-D2-B</v>
       </c>
@@ -1215,7 +1236,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="str">
+      <c r="A10" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/344/problem/A","CF344-D2-A")</f>
         <v>CF344-D2-A</v>
       </c>
@@ -1245,7 +1266,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="str">
+      <c r="A11" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/381/problem/A","CF381-D2-A")</f>
         <v>CF381-D2-A</v>
       </c>
@@ -1275,7 +1296,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/266/problem/A","CF266-D2-A")</f>
         <v>CF266-D2-A</v>
       </c>
@@ -1304,7 +1325,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/427/problem/A","CF427-D2-A")</f>
         <v>CF427-D2-A</v>
       </c>
@@ -1333,7 +1354,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/431/problem/A","CF431-D2-A")</f>
         <v>CF431-D2-A</v>
       </c>
@@ -1362,7 +1383,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/731/problem/A","CF731-D2-A")</f>
         <v>CF731-D2-A</v>
       </c>
@@ -1391,7 +1412,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="str">
+      <c r="A16" s="42" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/268/problem/A","CF268-D2-A")</f>
         <v>CF268-D2-A</v>
       </c>
@@ -1420,7 +1441,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/732/problem/A","CF732-D2-A")</f>
         <v>CF732-D2-A</v>
       </c>
@@ -1449,7 +1470,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/228/problem/A","CF228-D2-A")</f>
         <v>CF228-D2-A</v>
       </c>
@@ -1477,7 +1498,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="str">
+      <c r="A19" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/265/problem/A","CF265-D2-A")</f>
         <v>CF265-D2-A</v>
       </c>
@@ -1507,11 +1528,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="str">
+      <c r="A20" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/9/problem/A","CF9-D2-A")</f>
         <v>CF9-D2-A</v>
       </c>
-      <c r="B20" s="19" t="str">
+      <c r="B20" s="45" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/688/problem/B","CF688-D2-B")</f>
         <v>CF688-D2-B</v>
       </c>
@@ -1717,7 +1738,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="str">
+      <c r="A27" s="43" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/339/problem/A","CF339-D2-A")</f>
         <v>CF339-D2-A</v>
       </c>
@@ -6168,7 +6189,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6226,11 +6247,32 @@
       </c>
       <c r="B2" s="40">
         <f>COUNTA(C2:L2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="40" t="e">
+        <v>7</v>
+      </c>
+      <c r="C2" s="40">
+        <v>800</v>
+      </c>
+      <c r="D2" s="40">
+        <v>800</v>
+      </c>
+      <c r="E2" s="40">
+        <v>800</v>
+      </c>
+      <c r="F2" s="40">
+        <v>800</v>
+      </c>
+      <c r="G2" s="40">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="40">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="40">
+        <v>900</v>
+      </c>
+      <c r="M2" s="40">
         <f>AVERAGE(C2:L2)</f>
-        <v>#DIV/0!</v>
+        <v>871.42857142857144</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -6320,6 +6362,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="M2" evalError="1"/>
   </ignoredErrors>

--- a/Grind/roadmap.xlsx
+++ b/Grind/roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CP\Grind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9A876E-E94D-453A-952B-94FA44BDFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC5AC7F-D963-4A0A-A367-9CB99A30F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C54927D-AA71-406E-B84E-E8CF532E1A5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6C54927D-AA71-406E-B84E-E8CF532E1A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +499,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -527,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,6 +643,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB92E613-4B91-4891-9AE0-02057F498D84}">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,7 +1423,7 @@
         <f>HYPERLINK("http://codeforces.com/contest/268/problem/A","CF268-D2-A")</f>
         <v>CF268-D2-A</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="47" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/492/problem/B","CF492-D2-B")</f>
         <v>CF492-D2-B</v>
       </c>
@@ -1945,7 +1952,7 @@
         <f>HYPERLINK("https://www.spoj.com/problems/EASYMATH/","SPOJ EASYMATH")</f>
         <v>SPOJ EASYMATH</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" s="44" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/476/problem/B","CF476-D2-B")</f>
         <v>CF476-D2-B</v>
       </c>
@@ -2061,7 +2068,7 @@
         <f>HYPERLINK("http://codeforces.com/contest/766/problem/A","CF766-D2-A")</f>
         <v>CF766-D2-A</v>
       </c>
-      <c r="B38" s="3" t="str">
+      <c r="B38" s="44" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/400/problem/B","CF400-D2-B")</f>
         <v>CF400-D2-B</v>
       </c>
@@ -2146,7 +2153,7 @@
         <f>HYPERLINK("http://codeforces.com/contest/520/problem/A","CF520-D2-A")</f>
         <v>CF520-D2-A</v>
       </c>
-      <c r="B41" s="19" t="str">
+      <c r="B41" s="45" t="str">
         <f>HYPERLINK("http://codeforces.com/contest/148/problem/B","CF148-D2-B")</f>
         <v>CF148-D2-B</v>
       </c>
@@ -6188,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8027ACF8-AEEA-45F7-9A3E-F46AEC4B6BB9}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6279,85 +6286,183 @@
       <c r="A3" s="41">
         <v>44532</v>
       </c>
+      <c r="B3" s="40">
+        <f>COUNTA(C3:L3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="40">
+        <v>1300</v>
+      </c>
+      <c r="M3" s="40">
+        <f>AVERAGE(C3:L3)</f>
+        <v>1250</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="41">
         <v>44533</v>
       </c>
+      <c r="B4" s="40">
+        <f t="shared" ref="B4:B19" si="0">COUNTA(C4:L4)</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1500</v>
+      </c>
+      <c r="M4" s="40">
+        <f t="shared" ref="M4:M5" si="1">AVERAGE(C4:L4)</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="41">
         <v>44534</v>
       </c>
+      <c r="B5" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="40">
+        <v>1300</v>
+      </c>
+      <c r="D5" s="40">
+        <v>900</v>
+      </c>
+      <c r="M5" s="40">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="41">
         <v>44535</v>
       </c>
+      <c r="B6" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="41">
         <v>44536</v>
       </c>
+      <c r="B7" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="41">
         <v>44537</v>
       </c>
+      <c r="B8" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="41">
         <v>44538</v>
       </c>
+      <c r="B9" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="41">
         <v>44539</v>
       </c>
+      <c r="B10" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="41">
         <v>44540</v>
       </c>
+      <c r="B11" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="41">
         <v>44541</v>
       </c>
+      <c r="B12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="41">
         <v>44542</v>
       </c>
+      <c r="B13" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="41">
         <v>44543</v>
       </c>
+      <c r="B14" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="41">
         <v>44544</v>
       </c>
+      <c r="B15" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="41">
         <v>44545</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="41">
         <v>44546</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="41">
         <v>44547</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="41">
         <v>44548</v>
+      </c>
+      <c r="B19" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
